--- a/Flipped-Class/副本2023年学堂数据结构 翻转课堂 内容安排.xlsx
+++ b/Flipped-Class/副本2023年学堂数据结构 翻转课堂 内容安排.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2BFEA7-B635-4FFA-9695-84FF8CA90F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA2591-5E54-4A0E-8252-C1F6E278B9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-290" yWindow="2340" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="5" r:id="rId1"/>
@@ -501,13 +501,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. Fenwick tree：https://cp-algorithms.com/data_structures/fenwick.html
-2. Treap：https://cp-algorithms.com/data_structures/treap.html
-3. sqrt tree: https://cp-algorithms.com/data_structures/sqrt-tree.html 
-4. segment tree: https://cp-algorithms.com/data_structures/segment_tree.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. SPFA算法
 https://blog.csdn.net/xiazdong/article/details/8193680
 2. floyd算法
@@ -553,9 +546,14 @@
 https://en.wikipedia.org/wiki/Trie
 2.Boyer–Moore string-search algorithm
 https://en.wikipedia.org/wiki/Boyer%E2%80%93Moore_string-search_algorithm
-3.backward KMP: https://gist.github.com/rvhuang/49ad4d2ebd33c8d5f604a815b9fe1816
 4. Rabin–Karp algorithm
 https://en.wikipedia.org/wiki/Rabin%E2%80%93Karp_algorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fenwick tree：https://cp-algorithms.com/data_structures/fenwick.html
+2. Treap：https://cp-algorithms.com/data_structures/treap.html
+3. sqrt tree: https://cp-algorithms.com/data_structures/sqrt-tree.html </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1186,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A1B96-0764-41F6-9AAB-3A6D42E47400}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.5" x14ac:dyDescent="0.45"/>
@@ -1228,12 +1226,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="192.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="137.5" x14ac:dyDescent="0.45">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>66</v>
@@ -1248,12 +1246,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="275" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="192.5" x14ac:dyDescent="0.45">
       <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>66</v>
@@ -1273,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>66</v>
@@ -1293,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>66</v>
@@ -1313,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>66</v>
@@ -1333,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>66</v>
